--- a/biology/Biologie cellulaire et moléculaire/Complémentation_(génétique)/Complémentation_(génétique).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Complémentation_(génétique)/Complémentation_(génétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Compl%C3%A9mentation_(g%C3%A9n%C3%A9tique)</t>
+          <t>Complémentation_(génétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La complémentation est en génétique le fait qu'un gène introduit dans un organisme puisse compenser le défaut provoqué par l'inactivation d'un gène de cet organisme.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Compl%C3%A9mentation_(g%C3%A9n%C3%A9tique)</t>
+          <t>Complémentation_(génétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Test de complémentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Un test de complémentation permet de déterminer si deux mutants récessifs obtenus indépendamment sont causés par des mutations dans le même gène, ou dans deux gènes différents. Lewis, Pontecorvo et Benzer pourraient se partager l'invention du test, dans le début des années 1950.
 Les deux mutants sont croisés pour obtenir un individu qui :
